--- a/data&codebook/codebook.xlsx
+++ b/data&codebook/codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\[P]NTUstudies\Manuscripts\ScientificData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\[P]NTUstudies\Manuscripts\ScientificData\data&amp;codebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8078C7D-C2F6-4E1A-B24A-B067407A4F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6130E8F-CC90-4EB8-9CD7-6FE1A62AD83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="-120" windowWidth="26445" windowHeight="16440" xr2:uid="{23ED2236-532E-4362-AB89-EFDCD66C0829}"/>
+    <workbookView xWindow="2115" yWindow="-120" windowWidth="26805" windowHeight="16440" xr2:uid="{23ED2236-532E-4362-AB89-EFDCD66C0829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="520">
   <si>
     <t>ID</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>Whether a participant is consistent in his/her choices among the 6 items. 1 = transitive (consistent); 0 = intransitive (inconsistent). The 9 options in each round represent two of four SVO types (altruistic, prosocial, individualistic, and competitive). Transitivity means that if a participant prefers a prosocial option to an individualistic option in one round and an individualistic option to a competitive option in another round, then he or she should also prefer a prosocial option to a competitive option in a third round. Otherwise, intransitivity occurs.</t>
+  </si>
+  <si>
+    <t>Score for the battle of the sexes game. Higher score means higher cooperativeness.</t>
   </si>
 </sst>
 </file>
@@ -2145,9 +2148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2185,7 +2188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2291,7 +2294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2433,7 +2436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2444,7 +2447,7 @@
   <dimension ref="A1:B452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,7 +3381,7 @@
         <v>106</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
